--- a/DCU_Tablas_Paciente_Medico.xlsx
+++ b/DCU_Tablas_Paciente_Medico.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GabrielaSaldaña\Documents\Escuela\TT1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GabrielaSaldaña\Documents\cdu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -385,7 +385,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,6 +410,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -423,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -437,6 +443,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1182,7 +1189,7 @@
   <dimension ref="B1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1202,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>59</v>
       </c>
     </row>

--- a/DCU_Tablas_Paciente_Medico.xlsx
+++ b/DCU_Tablas_Paciente_Medico.xlsx
@@ -412,7 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
